--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.005576531794650841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005372847301616628</v>
+        <v>0.005391585033465536</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001157265936183748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004845649388712719</v>
+        <v>0.004902478676491427</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.004619129992047738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004719749761971981</v>
+        <v>0.0048313449982191</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.00583130652084318</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004689043262327999</v>
+        <v>0.004869655468291279</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.005031246956993771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004674013626360218</v>
+        <v>0.004951233578876956</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.008212026562165783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005162505266371909</v>
+        <v>0.00556612612514229</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.005545036458156849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00548898744148694</v>
+        <v>0.006034871539595818</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.005883343771096528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005782591434786393</v>
+        <v>0.006413475971881103</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.002119289411777319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005782097633235818</v>
+        <v>0.006401294585086091</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.002481047630553294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005950413906055394</v>
+        <v>0.006574086144302818</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00426992280991702</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006312221272104354</v>
+        <v>0.006879554481336479</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.007023164677615485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006425281549842836</v>
+        <v>0.006925122128619754</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.001837689814809705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006905186207747728</v>
+        <v>0.007458057660293404</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.001169320507445097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006799793326456466</v>
+        <v>0.007397743146405802</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.001105719264750382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006717574617350796</v>
+        <v>0.007341582510129461</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.0009249542943686477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006297979333907685</v>
+        <v>0.006831907727829873</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.0008803492951898614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005896259706392024</v>
+        <v>0.006298357667387296</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.0007690678188344744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005463075641755485</v>
+        <v>0.005735268731397046</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.0008450347364187718</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005162211667411124</v>
+        <v>0.005339454366101046</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.0009430708774547083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005027389714832661</v>
+        <v>0.005147107090113356</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002835043287662866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00560591927221408</v>
+        <v>0.005758903993750071</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001763006906533456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005067773820097446</v>
+        <v>0.005115948887056319</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.003828231060657159</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005383147295458572</v>
+        <v>0.005443777376159626</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.002456246104679993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.005378191017278755</v>
+        <v>0.005402434002352825</v>
       </c>
     </row>
   </sheetData>
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="849">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.005576531794650841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005391585033465536</v>
+        <v>0.00566240420109124</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001157265936183748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004902478676491427</v>
+        <v>0.005160581150253048</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.004619129992047738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0048313449982191</v>
+        <v>0.004985963246303988</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.00583130652084318</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004869655468291279</v>
+        <v>0.004850481499526297</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.005031246956993771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004951233578876956</v>
+        <v>0.004728055196859504</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.008212026562165783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00556612612514229</v>
+        <v>0.005101732315079534</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.005545036458156849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006034871539595818</v>
+        <v>0.005392918372660442</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.005883343771096528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006413475971881103</v>
+        <v>0.005718253098726423</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.002119289411777319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006401294585086091</v>
+        <v>0.005729687333050354</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.002481047630553294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006574086144302818</v>
+        <v>0.005876984784540025</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00426992280991702</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006879554481336479</v>
+        <v>0.006255312267302564</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.007023164677615485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006925122128619754</v>
+        <v>0.006447696763368043</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.001837689814809705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007458057660293404</v>
+        <v>0.006964787256140649</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.001169320507445097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007397743146405802</v>
+        <v>0.006948036434145204</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.001105719264750382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007341582510129461</v>
+        <v>0.006866802829542305</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.0009249542943686477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006831907727829873</v>
+        <v>0.006426146398791528</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.0008803492951898614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.006298357667387296</v>
+        <v>0.005989730945103779</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.0007690678188344744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005735268731397046</v>
+        <v>0.005559134093161899</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.0008450347364187718</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005339454366101046</v>
+        <v>0.005287169499768445</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.0009430708774547083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005147107090113356</v>
+        <v>0.005186442178932205</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002835043287662866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005758903993750071</v>
+        <v>0.005677964749925453</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001763006906533456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005115948887056319</v>
+        <v>0.005318385950763241</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.003828231060657159</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005443777376159626</v>
+        <v>0.005633998067757589</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.002456246104679993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.005402434002352825</v>
+        <v>0.00566993430658483</v>
       </c>
     </row>
   </sheetData>
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
@@ -514,16 +514,16 @@
         <v>0.008134622692617728</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002449428535287408</v>
+        <v>0.002339075166741676</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00200584349284006</v>
+        <v>0.001936941200256115</v>
       </c>
       <c r="J2" t="n">
         <v>0.005576531794650841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00566240420109124</v>
+        <v>0.003698806771927552</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>0.008713069154788842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00220132390900023</v>
+        <v>0.002251890108089775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003803613968286083</v>
+        <v>0.003755451205506688</v>
       </c>
       <c r="J3" t="n">
         <v>0.001157265936183748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005160581150253048</v>
+        <v>0.002322019957053998</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +584,16 @@
         <v>0.009863937663587556</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001973930993430151</v>
+        <v>0.002093353155308405</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001429398376377774</v>
+        <v>0.001424831876740653</v>
       </c>
       <c r="J4" t="n">
         <v>0.004619129992047738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004985963246303988</v>
+        <v>0.001824083663271049</v>
       </c>
     </row>
     <row r="5">
@@ -619,16 +619,16 @@
         <v>0.01127282176081607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002352535394941672</v>
+        <v>0.002224946435768514</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001496545332004916</v>
+        <v>0.001463613004682685</v>
       </c>
       <c r="J5" t="n">
         <v>0.00583130652084318</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004850481499526297</v>
+        <v>0.001680603950508805</v>
       </c>
     </row>
     <row r="6">
@@ -654,16 +654,16 @@
         <v>0.01331871962083328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002179348623639612</v>
+        <v>0.002090006467666123</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001514212876704685</v>
+        <v>0.001424538490070393</v>
       </c>
       <c r="J6" t="n">
         <v>0.005031246956993771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004728055196859504</v>
+        <v>0.00180059048883733</v>
       </c>
     </row>
     <row r="7">
@@ -689,16 +689,16 @@
         <v>0.01278403044474133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002514365340228722</v>
+        <v>0.002433870818327496</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001575647816064529</v>
+        <v>0.001587496084442153</v>
       </c>
       <c r="J7" t="n">
         <v>0.008212026562165783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005101732315079534</v>
+        <v>0.0023078638313735</v>
       </c>
     </row>
     <row r="8">
@@ -724,16 +724,16 @@
         <v>0.01268962634963642</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002632800567657446</v>
+        <v>0.002519307148880183</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001818063585405785</v>
+        <v>0.001649034441443237</v>
       </c>
       <c r="J8" t="n">
         <v>0.005545036458156849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005392918372660442</v>
+        <v>0.001910455407845612</v>
       </c>
     </row>
     <row r="9">
@@ -759,16 +759,16 @@
         <v>0.01211062028624144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003315218783163479</v>
+        <v>0.003220189507127957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002235618855495326</v>
+        <v>0.002200576221493221</v>
       </c>
       <c r="J9" t="n">
         <v>0.005883343771096528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005718253098726423</v>
+        <v>0.0020684032709661</v>
       </c>
     </row>
     <row r="10">
@@ -794,16 +794,16 @@
         <v>0.01217956232006534</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002982367188005791</v>
+        <v>0.003108080555530073</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002137841068227691</v>
+        <v>0.002109306207995795</v>
       </c>
       <c r="J10" t="n">
         <v>0.002119289411777319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005729687333050354</v>
+        <v>0.003228263760682536</v>
       </c>
     </row>
     <row r="11">
@@ -829,16 +829,16 @@
         <v>0.01067108149625683</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003072887016370319</v>
+        <v>0.003133669977941172</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00191719675608143</v>
+        <v>0.002130298407076026</v>
       </c>
       <c r="J11" t="n">
         <v>0.002481047630553294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005876984784540025</v>
+        <v>0.002547254082991074</v>
       </c>
     </row>
     <row r="12">
@@ -864,16 +864,16 @@
         <v>0.008840933664060451</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008476452661648901</v>
+        <v>0.00827435912842733</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007427127094270363</v>
+        <v>0.007114051304889854</v>
       </c>
       <c r="J12" t="n">
         <v>0.00426992280991702</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006255312267302564</v>
+        <v>0.0025807823761063</v>
       </c>
     </row>
     <row r="13">
@@ -899,16 +899,16 @@
         <v>0.008206124302195011</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002572217439904173</v>
+        <v>0.002649347296987324</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001729052143362469</v>
+        <v>0.001742642700848495</v>
       </c>
       <c r="J13" t="n">
         <v>0.007023164677615485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006447696763368043</v>
+        <v>0.003510456028968112</v>
       </c>
     </row>
     <row r="14">
@@ -934,16 +934,16 @@
         <v>0.008650906147175629</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007386239684525075</v>
+        <v>0.006937348175052965</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004949293055432232</v>
+        <v>0.005078230056824395</v>
       </c>
       <c r="J14" t="n">
         <v>0.001837689814809705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006964787256140649</v>
+        <v>0.003185302711553165</v>
       </c>
     </row>
     <row r="15">
@@ -969,16 +969,16 @@
         <v>0.01012729077794649</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001476256814800818</v>
+        <v>0.001461313662303086</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001579685762775986</v>
+        <v>0.001598286504304269</v>
       </c>
       <c r="J15" t="n">
         <v>0.001169320507445097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006948036434145204</v>
+        <v>0.003345845641885673</v>
       </c>
     </row>
     <row r="16">
@@ -1004,16 +1004,16 @@
         <v>0.01223616998889919</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001063035265004941</v>
+        <v>0.001082599030191843</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000744630971167011</v>
+        <v>0.0008563214618408557</v>
       </c>
       <c r="J16" t="n">
         <v>0.001105719264750382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006866802829542305</v>
+        <v>0.00324193055103413</v>
       </c>
     </row>
     <row r="17">
@@ -1039,16 +1039,16 @@
         <v>0.01299970632415733</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001763777739392729</v>
+        <v>0.001517782479959059</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005056927173754167</v>
+        <v>0.0005277347249480395</v>
       </c>
       <c r="J17" t="n">
         <v>0.0009249542943686477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006426146398791528</v>
+        <v>0.003021015227737132</v>
       </c>
     </row>
     <row r="18">
@@ -1074,16 +1074,16 @@
         <v>0.01309227070745533</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001849854436863663</v>
+        <v>0.001380374610656659</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0006324285447612868</v>
+        <v>0.0006570056653939758</v>
       </c>
       <c r="J18" t="n">
         <v>0.0008803492951898614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005989730945103779</v>
+        <v>0.002934970769310907</v>
       </c>
     </row>
     <row r="19">
@@ -1109,16 +1109,16 @@
         <v>0.01234377944719602</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001736300452263032</v>
+        <v>0.001340024617754601</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001519766826793364</v>
+        <v>0.001418884557027083</v>
       </c>
       <c r="J19" t="n">
         <v>0.0007690678188344744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005559134093161899</v>
+        <v>0.00269814859863408</v>
       </c>
     </row>
     <row r="20">
@@ -1144,16 +1144,16 @@
         <v>0.01154120498654018</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001753528734480324</v>
+        <v>0.001605743994291519</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002331316522294347</v>
+        <v>0.002401000787035601</v>
       </c>
       <c r="J20" t="n">
         <v>0.0008450347364187718</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005287169499768445</v>
+        <v>0.002644054685021568</v>
       </c>
     </row>
     <row r="21">
@@ -1179,16 +1179,16 @@
         <v>0.01087232621703123</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009506676104188124</v>
+        <v>0.0009909627297369377</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001345480915588514</v>
+        <v>0.001373533582390875</v>
       </c>
       <c r="J21" t="n">
         <v>0.0009430708774547083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005186442178932205</v>
+        <v>0.002775888884935181</v>
       </c>
     </row>
     <row r="22">
@@ -1214,16 +1214,16 @@
         <v>0.01203595194592681</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001366554895004764</v>
+        <v>0.001391778305011667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001061988256640913</v>
+        <v>0.001026765424378064</v>
       </c>
       <c r="J22" t="n">
         <v>0.002835043287662866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005677964749925453</v>
+        <v>0.005649905542506624</v>
       </c>
     </row>
     <row r="23">
@@ -1249,16 +1249,16 @@
         <v>0.009503596333785596</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004769257891933525</v>
+        <v>0.004791931334796102</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005052878724337268</v>
+        <v>0.004994799406742867</v>
       </c>
       <c r="J23" t="n">
         <v>0.001763006906533456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005318385950763241</v>
+        <v>0.002198793521277179</v>
       </c>
     </row>
     <row r="24">
@@ -1284,16 +1284,16 @@
         <v>0.009569512883996326</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001520691979227357</v>
+        <v>0.001571704416293069</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002441723983349394</v>
+        <v>0.002486634981323732</v>
       </c>
       <c r="J24" t="n">
         <v>0.003828231060657159</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005633998067757589</v>
+        <v>0.004208179586588196</v>
       </c>
     </row>
     <row r="25">
@@ -1319,16 +1319,16 @@
         <v>0.008850838876327559</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003144231059096459</v>
+        <v>0.003142211258005611</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004980960323288265</v>
+        <v>0.005051400945376372</v>
       </c>
       <c r="J25" t="n">
         <v>0.002456246104679993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00566993430658483</v>
+        <v>0.003314505982556974</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4029,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4367,7 +4367,7 @@
         <v>0.33</v>
       </c>
       <c r="C232" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="233">
@@ -4432,7 +4432,7 @@
         <v>0.38</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="238">
@@ -4458,7 +4458,7 @@
         <v>0.4</v>
       </c>
       <c r="C239" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="240">
@@ -4471,7 +4471,7 @@
         <v>0.41</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="241">
@@ -4510,7 +4510,7 @@
         <v>0.44</v>
       </c>
       <c r="C243" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="244">
@@ -4523,7 +4523,7 @@
         <v>0.45</v>
       </c>
       <c r="C244" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="245">
@@ -4601,7 +4601,7 @@
         <v>0.51</v>
       </c>
       <c r="C250" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="251">
@@ -4653,7 +4653,7 @@
         <v>0.55</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="255">
@@ -4666,7 +4666,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="256">
@@ -4718,7 +4718,7 @@
         <v>0.6</v>
       </c>
       <c r="C259" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="260">
@@ -4757,7 +4757,7 @@
         <v>0.63</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="263">
@@ -4770,7 +4770,7 @@
         <v>0.64</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="264">
@@ -4783,7 +4783,7 @@
         <v>0.65</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="265">
@@ -4835,7 +4835,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C268" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="269">
@@ -4848,7 +4848,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="270">
@@ -4861,7 +4861,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C270" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="271">
@@ -4939,7 +4939,7 @@
         <v>0.77</v>
       </c>
       <c r="C276" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="277">
@@ -4952,7 +4952,7 @@
         <v>0.78</v>
       </c>
       <c r="C277" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="278">
@@ -4965,7 +4965,7 @@
         <v>0.79</v>
       </c>
       <c r="C278" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="279">
@@ -5069,7 +5069,7 @@
         <v>0.87</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6876,7 +6876,7 @@
         <v>0.28</v>
       </c>
       <c r="C425" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="426">
@@ -6889,7 +6889,7 @@
         <v>0.29</v>
       </c>
       <c r="C426" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="427">
@@ -6902,7 +6902,7 @@
         <v>0.3</v>
       </c>
       <c r="C427" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="428">
@@ -6941,7 +6941,7 @@
         <v>0.33</v>
       </c>
       <c r="C430" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="431">
@@ -6954,7 +6954,7 @@
         <v>0.34</v>
       </c>
       <c r="C431" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="432">
@@ -6967,7 +6967,7 @@
         <v>0.35</v>
       </c>
       <c r="C432" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="433">
@@ -6993,7 +6993,7 @@
         <v>0.37</v>
       </c>
       <c r="C434" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="435">
@@ -7006,7 +7006,7 @@
         <v>0.38</v>
       </c>
       <c r="C435" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="436">
@@ -7045,7 +7045,7 @@
         <v>0.41</v>
       </c>
       <c r="C438" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="439">
@@ -7058,7 +7058,7 @@
         <v>0.42</v>
       </c>
       <c r="C439" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="440">
@@ -7123,7 +7123,7 @@
         <v>0.47</v>
       </c>
       <c r="C444" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="445">
@@ -7305,7 +7305,7 @@
         <v>0.61</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="459">
@@ -7318,7 +7318,7 @@
         <v>0.62</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="460">
@@ -7409,7 +7409,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C466" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="467">
@@ -7448,7 +7448,7 @@
         <v>0.72</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="470">
@@ -7461,7 +7461,7 @@
         <v>0.73</v>
       </c>
       <c r="C470" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="471">
@@ -7474,7 +7474,7 @@
         <v>0.74</v>
       </c>
       <c r="C471" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="472">
@@ -7500,7 +7500,7 @@
         <v>0.76</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -7825,7 +7825,7 @@
         <v>0.02</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="499">
@@ -8059,7 +8059,7 @@
         <v>0.2</v>
       </c>
       <c r="C516" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="517">
@@ -8124,7 +8124,7 @@
         <v>0.25</v>
       </c>
       <c r="C521" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="522">
@@ -8137,7 +8137,7 @@
         <v>0.26</v>
       </c>
       <c r="C522" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="523">
@@ -8163,7 +8163,7 @@
         <v>0.28</v>
       </c>
       <c r="C524" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="525">
@@ -8176,7 +8176,7 @@
         <v>0.29</v>
       </c>
       <c r="C525" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="526">
@@ -8215,7 +8215,7 @@
         <v>0.32</v>
       </c>
       <c r="C528" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="529">
@@ -8228,7 +8228,7 @@
         <v>0.33</v>
       </c>
       <c r="C529" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="530">
@@ -8241,7 +8241,7 @@
         <v>0.34</v>
       </c>
       <c r="C530" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="531">
@@ -8254,7 +8254,7 @@
         <v>0.35</v>
       </c>
       <c r="C531" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="532">
@@ -8267,7 +8267,7 @@
         <v>0.36</v>
       </c>
       <c r="C532" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="533">
@@ -8280,7 +8280,7 @@
         <v>0.37</v>
       </c>
       <c r="C533" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="534">
@@ -8293,7 +8293,7 @@
         <v>0.38</v>
       </c>
       <c r="C534" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="535">
@@ -8306,7 +8306,7 @@
         <v>0.39</v>
       </c>
       <c r="C535" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="536">
@@ -8319,7 +8319,7 @@
         <v>0.4</v>
       </c>
       <c r="C536" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="537">
@@ -8332,7 +8332,7 @@
         <v>0.41</v>
       </c>
       <c r="C537" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="538">
@@ -8345,7 +8345,7 @@
         <v>0.42</v>
       </c>
       <c r="C538" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="539">
@@ -8358,7 +8358,7 @@
         <v>0.43</v>
       </c>
       <c r="C539" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="540">
@@ -8397,7 +8397,7 @@
         <v>0.46</v>
       </c>
       <c r="C542" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="543">
@@ -8410,7 +8410,7 @@
         <v>0.47</v>
       </c>
       <c r="C543" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="544">
@@ -8540,7 +8540,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C553" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="554">
@@ -8553,7 +8553,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C554" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="555">
@@ -8579,7 +8579,7 @@
         <v>0.6</v>
       </c>
       <c r="C556" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="557">
@@ -8592,7 +8592,7 @@
         <v>0.61</v>
       </c>
       <c r="C557" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="558">
@@ -8605,7 +8605,7 @@
         <v>0.62</v>
       </c>
       <c r="C558" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="559">
@@ -8618,7 +8618,7 @@
         <v>0.63</v>
       </c>
       <c r="C559" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="560">
@@ -8644,7 +8644,7 @@
         <v>0.65</v>
       </c>
       <c r="C561" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="562">
@@ -8657,7 +8657,7 @@
         <v>0.66</v>
       </c>
       <c r="C562" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="563">
@@ -8670,7 +8670,7 @@
         <v>0.67</v>
       </c>
       <c r="C563" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="564">
@@ -8683,7 +8683,7 @@
         <v>0.68</v>
       </c>
       <c r="C564" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="565">
@@ -8696,7 +8696,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C565" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="566">
@@ -8709,7 +8709,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C566" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="567">
@@ -8735,7 +8735,7 @@
         <v>0.72</v>
       </c>
       <c r="C568" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="569">
@@ -8748,7 +8748,7 @@
         <v>0.73</v>
       </c>
       <c r="C569" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="570">
@@ -8761,7 +8761,7 @@
         <v>0.74</v>
       </c>
       <c r="C570" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="571">
@@ -8787,7 +8787,7 @@
         <v>0.76</v>
       </c>
       <c r="C572" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="573">
@@ -8800,7 +8800,7 @@
         <v>0.77</v>
       </c>
       <c r="C573" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="574">
@@ -8813,7 +8813,7 @@
         <v>0.78</v>
       </c>
       <c r="C574" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="575">
@@ -8826,7 +8826,7 @@
         <v>0.79</v>
       </c>
       <c r="C575" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="576">
@@ -8839,7 +8839,7 @@
         <v>0.8</v>
       </c>
       <c r="C576" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="577">
@@ -8891,7 +8891,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C580" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="581">
@@ -8904,7 +8904,7 @@
         <v>0.85</v>
       </c>
       <c r="C581" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="582">
@@ -8917,7 +8917,7 @@
         <v>0.86</v>
       </c>
       <c r="C582" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="583">
@@ -8982,7 +8982,7 @@
         <v>0.91</v>
       </c>
       <c r="C587" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="588">
@@ -8995,7 +8995,7 @@
         <v>0.92</v>
       </c>
       <c r="C588" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="589">
@@ -9008,7 +9008,7 @@
         <v>0.93</v>
       </c>
       <c r="C589" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="590">
@@ -9021,7 +9021,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C590" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -9164,7 +9164,7 @@
         <v>0.06</v>
       </c>
       <c r="C601" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="602">
@@ -9177,7 +9177,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C602" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="603">
@@ -9190,7 +9190,7 @@
         <v>0.08</v>
       </c>
       <c r="C603" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="604">
@@ -9203,7 +9203,7 @@
         <v>0.09</v>
       </c>
       <c r="C604" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="605">
@@ -9294,7 +9294,7 @@
         <v>0.16</v>
       </c>
       <c r="C611" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="612">
@@ -9307,7 +9307,7 @@
         <v>0.17</v>
       </c>
       <c r="C612" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="613">
@@ -9359,7 +9359,7 @@
         <v>0.21</v>
       </c>
       <c r="C616" t="n">
-        <v>0.25</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="617">
@@ -9372,7 +9372,7 @@
         <v>0.22</v>
       </c>
       <c r="C617" t="n">
-        <v>0.25</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="618">
@@ -9411,7 +9411,7 @@
         <v>0.25</v>
       </c>
       <c r="C620" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="621">
@@ -9437,7 +9437,7 @@
         <v>0.27</v>
       </c>
       <c r="C622" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="623">
@@ -9450,7 +9450,7 @@
         <v>0.28</v>
       </c>
       <c r="C623" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="624">
@@ -9463,7 +9463,7 @@
         <v>0.29</v>
       </c>
       <c r="C624" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="625">
@@ -9476,7 +9476,7 @@
         <v>0.3</v>
       </c>
       <c r="C625" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="626">
@@ -9632,7 +9632,7 @@
         <v>0.42</v>
       </c>
       <c r="C637" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="638">
@@ -9645,7 +9645,7 @@
         <v>0.43</v>
       </c>
       <c r="C638" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="639">
@@ -9658,7 +9658,7 @@
         <v>0.44</v>
       </c>
       <c r="C639" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="640">
@@ -9671,7 +9671,7 @@
         <v>0.45</v>
       </c>
       <c r="C640" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="641">
@@ -9684,7 +9684,7 @@
         <v>0.46</v>
       </c>
       <c r="C641" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="642">
@@ -9736,7 +9736,7 @@
         <v>0.5</v>
       </c>
       <c r="C645" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="646">
@@ -9749,7 +9749,7 @@
         <v>0.51</v>
       </c>
       <c r="C646" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="647">
@@ -9762,7 +9762,7 @@
         <v>0.52</v>
       </c>
       <c r="C647" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="648">
@@ -9775,7 +9775,7 @@
         <v>0.53</v>
       </c>
       <c r="C648" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="649">
@@ -9840,7 +9840,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C653" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="654">
@@ -9853,7 +9853,7 @@
         <v>0.59</v>
       </c>
       <c r="C654" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="655">
@@ -9879,7 +9879,7 @@
         <v>0.61</v>
       </c>
       <c r="C656" t="n">
-        <v>0.625</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="657">
@@ -9892,7 +9892,7 @@
         <v>0.62</v>
       </c>
       <c r="C657" t="n">
-        <v>0.625</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="658">
@@ -9905,7 +9905,7 @@
         <v>0.63</v>
       </c>
       <c r="C658" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="659">
@@ -9918,7 +9918,7 @@
         <v>0.64</v>
       </c>
       <c r="C659" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="660">
@@ -9931,7 +9931,7 @@
         <v>0.65</v>
       </c>
       <c r="C660" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="661">
@@ -9957,7 +9957,7 @@
         <v>0.67</v>
       </c>
       <c r="C662" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="663">
@@ -9970,7 +9970,7 @@
         <v>0.68</v>
       </c>
       <c r="C663" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="664">
@@ -10022,7 +10022,7 @@
         <v>0.72</v>
       </c>
       <c r="C667" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="668">
@@ -10035,7 +10035,7 @@
         <v>0.73</v>
       </c>
       <c r="C668" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="669">
@@ -10048,7 +10048,7 @@
         <v>0.74</v>
       </c>
       <c r="C669" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="670">
@@ -10061,7 +10061,7 @@
         <v>0.75</v>
       </c>
       <c r="C670" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="671">
@@ -10087,7 +10087,7 @@
         <v>0.77</v>
       </c>
       <c r="C672" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="673">
@@ -10100,7 +10100,7 @@
         <v>0.78</v>
       </c>
       <c r="C673" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="674">
@@ -10113,7 +10113,7 @@
         <v>0.79</v>
       </c>
       <c r="C674" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="675">
@@ -10126,7 +10126,7 @@
         <v>0.8</v>
       </c>
       <c r="C675" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="676">
@@ -10152,7 +10152,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C677" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="678">
@@ -10165,7 +10165,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C678" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="679">
@@ -10295,7 +10295,7 @@
         <v>0.93</v>
       </c>
       <c r="C688" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -10308,7 +10308,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C689" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -10321,7 +10321,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="C690" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="828">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="829">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="830">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="836">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="837">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="841">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="845">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="846">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.125</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>1</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>1</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>1</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="861">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="862">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>1</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="864">
@@ -12583,7 +12583,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="865">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="866">
@@ -12609,7 +12609,7 @@
         <v>0.73</v>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="867">
@@ -12622,7 +12622,7 @@
         <v>0.74</v>
       </c>
       <c r="C867" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="868">
@@ -12635,7 +12635,7 @@
         <v>0.75</v>
       </c>
       <c r="C868" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="869">
@@ -12648,7 +12648,7 @@
         <v>0.76</v>
       </c>
       <c r="C869" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="870">
@@ -12661,7 +12661,7 @@
         <v>0.77</v>
       </c>
       <c r="C870" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="871">
@@ -12674,7 +12674,7 @@
         <v>0.78</v>
       </c>
       <c r="C871" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="872">
@@ -12687,7 +12687,7 @@
         <v>0.79</v>
       </c>
       <c r="C872" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="873">
@@ -12700,7 +12700,7 @@
         <v>0.8</v>
       </c>
       <c r="C873" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="874">
@@ -12713,7 +12713,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C874" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="875">
@@ -12726,7 +12726,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="876">
@@ -12739,7 +12739,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C876" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="877">
@@ -12752,7 +12752,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="878">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
@@ -508,7 +508,7 @@
         <v>0.002794866209125229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003501738283167631</v>
+        <v>0.001808534044375722</v>
       </c>
       <c r="G2" t="n">
         <v>0.008134622692617728</v>
@@ -523,7 +523,7 @@
         <v>0.005576531794650841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003698806771927552</v>
+        <v>0.003307752226007868</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0.004230058648204018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005872610782325238</v>
+        <v>0.004407100699680529</v>
       </c>
       <c r="G3" t="n">
         <v>0.008713069154788842</v>
@@ -558,7 +558,7 @@
         <v>0.001157265936183748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002322019957053998</v>
+        <v>0.002298405675748252</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>0.007529526358051047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01008747570831285</v>
+        <v>0.009727297642954519</v>
       </c>
       <c r="G4" t="n">
         <v>0.009863937663587556</v>
@@ -593,7 +593,7 @@
         <v>0.004619129992047738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001824083663271049</v>
+        <v>0.001681486262976148</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         <v>0.004151530218561688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01448598596059445</v>
+        <v>0.004324077359542587</v>
       </c>
       <c r="G5" t="n">
         <v>0.01127282176081607</v>
@@ -628,7 +628,7 @@
         <v>0.00583130652084318</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001680603950508805</v>
+        <v>0.001513218786223716</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>0.006455316697367399</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01933308961631212</v>
+        <v>0.008488569094844623</v>
       </c>
       <c r="G6" t="n">
         <v>0.01331871962083328</v>
@@ -663,7 +663,7 @@
         <v>0.005031246956993771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00180059048883733</v>
+        <v>0.001675385730833415</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>0.004163955700920463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01821248199060029</v>
+        <v>0.004572423490450677</v>
       </c>
       <c r="G7" t="n">
         <v>0.01278403044474133</v>
@@ -698,7 +698,7 @@
         <v>0.008212026562165783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0023078638313735</v>
+        <v>0.002231160189644942</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>0.003177529857118796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.018026082307244</v>
+        <v>0.00272636962685737</v>
       </c>
       <c r="G8" t="n">
         <v>0.01268962634963642</v>
@@ -733,7 +733,7 @@
         <v>0.005545036458156849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001910455407845612</v>
+        <v>0.001796405944450867</v>
       </c>
     </row>
     <row r="9">
@@ -753,7 +753,7 @@
         <v>0.00381544559395274</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01672128105177945</v>
+        <v>0.003677894137191754</v>
       </c>
       <c r="G9" t="n">
         <v>0.01211062028624144</v>
@@ -768,7 +768,7 @@
         <v>0.005883343771096528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0020684032709661</v>
+        <v>0.001907947145424381</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.003744804939224864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01690768073513574</v>
+        <v>0.003796276075551449</v>
       </c>
       <c r="G10" t="n">
         <v>0.01217956232006534</v>
@@ -803,7 +803,7 @@
         <v>0.002119289411777319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003228263760682536</v>
+        <v>0.003123912277921644</v>
       </c>
     </row>
     <row r="11">
@@ -823,7 +823,7 @@
         <v>0.003163213130386795</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01290659315291537</v>
+        <v>0.002551340253445681</v>
       </c>
       <c r="G11" t="n">
         <v>0.01067108149625683</v>
@@ -838,7 +838,7 @@
         <v>0.002481047630553294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002547254082991074</v>
+        <v>0.002388808781833976</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
         <v>0.003437934015911892</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006441798884585249</v>
+        <v>0.002347120773995543</v>
       </c>
       <c r="G12" t="n">
         <v>0.008840933664060451</v>
@@ -873,7 +873,7 @@
         <v>0.00426992280991702</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0025807823761063</v>
+        <v>0.002363779055608613</v>
       </c>
     </row>
     <row r="13">
@@ -893,7 +893,7 @@
         <v>0.003366178684054724</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004274531142707561</v>
+        <v>0.002431824441177326</v>
       </c>
       <c r="G13" t="n">
         <v>0.008206124302195011</v>
@@ -908,7 +908,7 @@
         <v>0.007023164677615485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003510456028968112</v>
+        <v>0.003341273328073388</v>
       </c>
     </row>
     <row r="14">
@@ -928,7 +928,7 @@
         <v>0.006312475305489024</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004832123771307548</v>
+        <v>0.006033852540605847</v>
       </c>
       <c r="G14" t="n">
         <v>0.008650906147175629</v>
@@ -943,7 +943,7 @@
         <v>0.001837689814809705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003185302711553165</v>
+        <v>0.002942990140276297</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
         <v>0.008600978769709756</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008144156135419979</v>
+        <v>0.009043473006668908</v>
       </c>
       <c r="G15" t="n">
         <v>0.01012729077794649</v>
@@ -978,7 +978,7 @@
         <v>0.001169320507445097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003345845641885673</v>
+        <v>0.003233514831811599</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
         <v>0.004949427958242228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01181842754841645</v>
+        <v>0.004658205737027079</v>
       </c>
       <c r="G16" t="n">
         <v>0.01223616998889919</v>
@@ -1013,7 +1013,7 @@
         <v>0.001105719264750382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00324193055103413</v>
+        <v>0.003018396388039824</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
         <v>0.004786468822063109</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01299035579543041</v>
+        <v>0.004255112729659143</v>
       </c>
       <c r="G17" t="n">
         <v>0.01299970632415733</v>
@@ -1048,7 +1048,7 @@
         <v>0.0009249542943686477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003021015227737132</v>
+        <v>0.002772459236591158</v>
       </c>
     </row>
     <row r="18">
@@ -1068,7 +1068,7 @@
         <v>0.00310136993806483</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01314135392431406</v>
+        <v>0.001977824511501901</v>
       </c>
       <c r="G18" t="n">
         <v>0.01309227070745533</v>
@@ -1083,7 +1083,7 @@
         <v>0.0008803492951898614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002934970769310907</v>
+        <v>0.00253365628997762</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1103,7 @@
         <v>0.00291948839365737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01203477365270563</v>
+        <v>0.001891962147652399</v>
       </c>
       <c r="G19" t="n">
         <v>0.01234377944719602</v>
@@ -1118,7 +1118,7 @@
         <v>0.0007690678188344744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00269814859863408</v>
+        <v>0.00224789814376015</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>0.002769746218237511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01076770626951006</v>
+        <v>0.001838694580314587</v>
       </c>
       <c r="G20" t="n">
         <v>0.01154120498654018</v>
@@ -1153,7 +1153,7 @@
         <v>0.0008450347364187718</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002644054685021568</v>
+        <v>0.002082129152558552</v>
       </c>
     </row>
     <row r="21">
@@ -1173,7 +1173,7 @@
         <v>0.002815254723459081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009637222819647672</v>
+        <v>0.001707217896022771</v>
       </c>
       <c r="G21" t="n">
         <v>0.01087232621703123</v>
@@ -1188,7 +1188,7 @@
         <v>0.0009430708774547083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002775888884935181</v>
+        <v>0.002080904029322679</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>0.004183305176297456</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01160493031012376</v>
+        <v>0.003061582426570094</v>
       </c>
       <c r="G22" t="n">
         <v>0.01203595194592681</v>
@@ -1223,7 +1223,7 @@
         <v>0.002835043287662866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005649905542506624</v>
+        <v>0.004595007352641981</v>
       </c>
     </row>
     <row r="23">
@@ -1243,7 +1243,7 @@
         <v>0.002754455419829518</v>
       </c>
       <c r="F23" t="n">
-        <v>0.006953421902266046</v>
+        <v>0.001665083327316629</v>
       </c>
       <c r="G23" t="n">
         <v>0.009503596333785596</v>
@@ -1258,7 +1258,7 @@
         <v>0.001763006906533456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002198793521277179</v>
+        <v>0.001839823085945474</v>
       </c>
     </row>
     <row r="24">
@@ -1278,7 +1278,7 @@
         <v>0.002861538060519137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007116955127869433</v>
+        <v>0.002098387082991426</v>
       </c>
       <c r="G24" t="n">
         <v>0.009569512883996326</v>
@@ -1293,7 +1293,7 @@
         <v>0.003828231060657159</v>
       </c>
       <c r="K24" t="n">
-        <v>0.004208179586588196</v>
+        <v>0.003395719193369303</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>0.003666784257691525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005461663914654845</v>
+        <v>0.002529178413427275</v>
       </c>
       <c r="G25" t="n">
         <v>0.008850838876327559</v>
@@ -1328,7 +1328,7 @@
         <v>0.002456246104679993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003314505982556974</v>
+        <v>0.002654584974783657</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5264,7 @@
         <v>0.03</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="302">
@@ -5277,7 +5277,7 @@
         <v>0.04</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="303">
@@ -5290,7 +5290,7 @@
         <v>0.05</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="304">
@@ -5303,7 +5303,7 @@
         <v>0.06</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="305">
@@ -5316,7 +5316,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="306">
@@ -5329,7 +5329,7 @@
         <v>0.08</v>
       </c>
       <c r="C306" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="307">
@@ -5342,7 +5342,7 @@
         <v>0.09</v>
       </c>
       <c r="C307" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="308">
@@ -5355,7 +5355,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="309">
@@ -5368,7 +5368,7 @@
         <v>0.11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="310">
@@ -5381,7 +5381,7 @@
         <v>0.12</v>
       </c>
       <c r="C310" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="311">
@@ -5394,7 +5394,7 @@
         <v>0.13</v>
       </c>
       <c r="C311" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="312">
@@ -5407,7 +5407,7 @@
         <v>0.14</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="313">
@@ -5420,7 +5420,7 @@
         <v>0.15</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="314">
@@ -5433,7 +5433,7 @@
         <v>0.16</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="315">
@@ -5446,7 +5446,7 @@
         <v>0.17</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="316">
@@ -5459,7 +5459,7 @@
         <v>0.18</v>
       </c>
       <c r="C316" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="317">
@@ -5472,7 +5472,7 @@
         <v>0.19</v>
       </c>
       <c r="C317" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="318">
@@ -5485,7 +5485,7 @@
         <v>0.2</v>
       </c>
       <c r="C318" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="319">
@@ -5498,7 +5498,7 @@
         <v>0.21</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -5511,7 +5511,7 @@
         <v>0.22</v>
       </c>
       <c r="C320" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="321">
@@ -5524,7 +5524,7 @@
         <v>0.23</v>
       </c>
       <c r="C321" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="322">
@@ -5537,7 +5537,7 @@
         <v>0.24</v>
       </c>
       <c r="C322" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="323">
@@ -5550,7 +5550,7 @@
         <v>0.25</v>
       </c>
       <c r="C323" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="324">
@@ -5563,7 +5563,7 @@
         <v>0.26</v>
       </c>
       <c r="C324" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="325">
@@ -5576,7 +5576,7 @@
         <v>0.27</v>
       </c>
       <c r="C325" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="326">
@@ -5589,7 +5589,7 @@
         <v>0.28</v>
       </c>
       <c r="C326" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="327">
@@ -5602,7 +5602,7 @@
         <v>0.29</v>
       </c>
       <c r="C327" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="328">
@@ -5615,7 +5615,7 @@
         <v>0.3</v>
       </c>
       <c r="C328" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="329">
@@ -5628,7 +5628,7 @@
         <v>0.31</v>
       </c>
       <c r="C329" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="330">
@@ -5641,7 +5641,7 @@
         <v>0.32</v>
       </c>
       <c r="C330" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="331">
@@ -5654,7 +5654,7 @@
         <v>0.33</v>
       </c>
       <c r="C331" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="332">
@@ -5667,7 +5667,7 @@
         <v>0.34</v>
       </c>
       <c r="C332" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="333">
@@ -5680,7 +5680,7 @@
         <v>0.35</v>
       </c>
       <c r="C333" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="334">
@@ -5693,7 +5693,7 @@
         <v>0.36</v>
       </c>
       <c r="C334" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="335">
@@ -5706,7 +5706,7 @@
         <v>0.37</v>
       </c>
       <c r="C335" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="336">
@@ -5719,7 +5719,7 @@
         <v>0.38</v>
       </c>
       <c r="C336" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="337">
@@ -5732,7 +5732,7 @@
         <v>0.39</v>
       </c>
       <c r="C337" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="338">
@@ -5745,7 +5745,7 @@
         <v>0.4</v>
       </c>
       <c r="C338" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="339">
@@ -5758,7 +5758,7 @@
         <v>0.41</v>
       </c>
       <c r="C339" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="340">
@@ -5771,7 +5771,7 @@
         <v>0.42</v>
       </c>
       <c r="C340" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="341">
@@ -5784,7 +5784,7 @@
         <v>0.43</v>
       </c>
       <c r="C341" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="342">
@@ -5797,7 +5797,7 @@
         <v>0.44</v>
       </c>
       <c r="C342" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="343">
@@ -5810,7 +5810,7 @@
         <v>0.45</v>
       </c>
       <c r="C343" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="344">
@@ -5823,7 +5823,7 @@
         <v>0.46</v>
       </c>
       <c r="C344" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="345">
@@ -5836,7 +5836,7 @@
         <v>0.47</v>
       </c>
       <c r="C345" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="346">
@@ -5875,7 +5875,7 @@
         <v>0.5</v>
       </c>
       <c r="C348" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="349">
@@ -5888,7 +5888,7 @@
         <v>0.51</v>
       </c>
       <c r="C349" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="350">
@@ -5901,7 +5901,7 @@
         <v>0.52</v>
       </c>
       <c r="C350" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="351">
@@ -5914,7 +5914,7 @@
         <v>0.53</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="352">
@@ -5927,7 +5927,7 @@
         <v>0.54</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="353">
@@ -5940,7 +5940,7 @@
         <v>0.55</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="354">
@@ -5953,7 +5953,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C354" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="355">
@@ -5966,7 +5966,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="356">
@@ -5979,7 +5979,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C356" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="357">
@@ -5992,7 +5992,7 @@
         <v>0.59</v>
       </c>
       <c r="C357" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="358">
@@ -6005,7 +6005,7 @@
         <v>0.6</v>
       </c>
       <c r="C358" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="359">
@@ -6018,7 +6018,7 @@
         <v>0.61</v>
       </c>
       <c r="C359" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="360">
@@ -6031,7 +6031,7 @@
         <v>0.62</v>
       </c>
       <c r="C360" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="361">
@@ -6044,7 +6044,7 @@
         <v>0.63</v>
       </c>
       <c r="C361" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="362">
@@ -6057,7 +6057,7 @@
         <v>0.64</v>
       </c>
       <c r="C362" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="363">
@@ -6070,7 +6070,7 @@
         <v>0.65</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="364">
@@ -6083,7 +6083,7 @@
         <v>0.66</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="365">
@@ -6096,7 +6096,7 @@
         <v>0.67</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="366">
@@ -6109,7 +6109,7 @@
         <v>0.68</v>
       </c>
       <c r="C366" t="n">
-        <v>0.5</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="367">
@@ -6122,7 +6122,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="368">
@@ -6135,7 +6135,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="369">
@@ -6148,7 +6148,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C369" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="370">
@@ -6161,7 +6161,7 @@
         <v>0.72</v>
       </c>
       <c r="C370" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="371">
@@ -6174,7 +6174,7 @@
         <v>0.73</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="372">
@@ -6187,7 +6187,7 @@
         <v>0.74</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="373">
@@ -6200,7 +6200,7 @@
         <v>0.75</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="374">
@@ -6213,7 +6213,7 @@
         <v>0.76</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="375">
@@ -6226,7 +6226,7 @@
         <v>0.77</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="376">
@@ -6239,7 +6239,7 @@
         <v>0.78</v>
       </c>
       <c r="C376" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="377">
@@ -6252,7 +6252,7 @@
         <v>0.79</v>
       </c>
       <c r="C377" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="378">
@@ -6265,7 +6265,7 @@
         <v>0.8</v>
       </c>
       <c r="C378" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="379">
@@ -6278,7 +6278,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C379" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="380">
@@ -6291,7 +6291,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="381">
@@ -6304,7 +6304,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="382">
@@ -6317,7 +6317,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="383">
@@ -6330,7 +6330,7 @@
         <v>0.85</v>
       </c>
       <c r="C383" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="384">
@@ -6369,7 +6369,7 @@
         <v>0.88</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="387">
@@ -6382,7 +6382,7 @@
         <v>0.89</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="388">
@@ -6395,7 +6395,7 @@
         <v>0.9</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="389">
@@ -6408,7 +6408,7 @@
         <v>0.91</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="390">
@@ -6421,7 +6421,7 @@
         <v>0.92</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="391">
@@ -6434,7 +6434,7 @@
         <v>0.93</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="392">
@@ -6447,7 +6447,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="393">
@@ -6460,7 +6460,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="394">
@@ -6473,7 +6473,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="395">
@@ -6486,7 +6486,7 @@
         <v>0.97</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="396">
@@ -12050,7 +12050,7 @@
         <v>0.3</v>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="824">
@@ -12063,7 +12063,7 @@
         <v>0.31</v>
       </c>
       <c r="C824" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="825">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="828">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="829">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="830">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="836">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="837">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="841">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="845">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="846">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.625</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="861">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="862">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="864">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="866">
@@ -12609,7 +12609,7 @@
         <v>0.73</v>
       </c>
       <c r="C866" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="867">
@@ -12687,7 +12687,7 @@
         <v>0.79</v>
       </c>
       <c r="C872" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="873">
@@ -12752,7 +12752,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/traffic_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.005576531794650841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003307752226007868</v>
+        <v>0.003630464975297606</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001157265936183748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002298405675748252</v>
+        <v>0.002231585015996698</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.004619129992047738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001681486262976148</v>
+        <v>0.001884245602120128</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.00583130652084318</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001513218786223716</v>
+        <v>0.001680894951053323</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.005031246956993771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001675385730833415</v>
+        <v>0.001871045575243412</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.008212026562165783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002231160189644942</v>
+        <v>0.002015984583424894</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.005545036458156849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001796405944450867</v>
+        <v>0.001858685445184616</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.005883343771096528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001907947145424381</v>
+        <v>0.002169258860458782</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.002119289411777319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003123912277921644</v>
+        <v>0.00380047188099004</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.002481047630553294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002388808781833976</v>
+        <v>0.003142508056426556</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00426992280991702</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002363779055608613</v>
+        <v>0.002734188575408689</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.007023164677615485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003341273328073388</v>
+        <v>0.003669740877165521</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.001837689814809705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002942990140276297</v>
+        <v>0.002967188401908189</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.001169320507445097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003233514831811599</v>
+        <v>0.003147908678911765</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.001105719264750382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003018396388039824</v>
+        <v>0.003022709276994946</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.0009249542943686477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002772459236591158</v>
+        <v>0.002803431605337677</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.0008803492951898614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00253365628997762</v>
+        <v>0.002721001363459578</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.0007690678188344744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00224789814376015</v>
+        <v>0.002532828031772933</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.0008450347364187718</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002082129152558552</v>
+        <v>0.002495317370129361</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.0009430708774547083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002080904029322679</v>
+        <v>0.002654076260225531</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002835043287662866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004595007352641981</v>
+        <v>0.005666131477393398</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001763006906533456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001839823085945474</v>
+        <v>0.002081848475111493</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.003828231060657159</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003395719193369303</v>
+        <v>0.00394576476245575</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.002456246104679993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002654584974783657</v>
+        <v>0.003236306088530198</v>
       </c>
     </row>
   </sheetData>
@@ -12024,7 +12024,7 @@
         <v>0.28</v>
       </c>
       <c r="C821" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="822">
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="C822" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="823">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="827">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="829">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="834">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="837">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="841">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="845">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="846">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="848">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="859">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="864">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="866">
@@ -12609,7 +12609,7 @@
         <v>0.73</v>
       </c>
       <c r="C866" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="867">
@@ -12622,7 +12622,7 @@
         <v>0.74</v>
       </c>
       <c r="C867" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="868">
@@ -12752,7 +12752,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="878">
@@ -12765,7 +12765,7 @@
         <v>0.85</v>
       </c>
       <c r="C878" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="879">
@@ -12778,7 +12778,7 @@
         <v>0.86</v>
       </c>
       <c r="C879" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="880">
